--- a/Data_processed/electricity/electricity China.xlsx
+++ b/Data_processed/electricity/electricity China.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:CW32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,495 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>..1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>..2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>human tox</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>metals</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>fossil tra</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>carbon</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ced</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>renewable</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>recipe2016</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.4</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.5</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>global warming,</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>stratospheric</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>ionizing</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation,</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>fine particulate</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation, .1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>human .1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>human .2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>land use</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>mineral resource</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>fossil resource</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption, .1</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>ef 3.1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>acidification</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>climate change</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>particulate</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication, .1</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity,</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity, non-cancer</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>ionising radiation</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>land use.1</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>ozone depletion</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>photochemical ozone formation</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,.1</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>water use</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>traci</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>traci.1</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>traci.2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>traci.3</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>traci.4</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>traci.5</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>traci.6</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>traci.7</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>traci.8</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>traci.9</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>carbon</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>pollutants</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity.1</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>classyfire</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>chemicals,plastics, and wood</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>note:</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 107</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 110</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 118</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>source_file</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>region</t>
         </is>
@@ -478,18 +953,297 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>B.046.04.101</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Electricity Beijing production</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>0.0403012437709</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0004239537799999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.00064796005</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.9979409e-06</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.039223332</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0003501908</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00029776925</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0002919435</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00013201028</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.9979409e-06</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0.26148888</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="Z2" t="n">
+        <v>6.5711769</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3.0848085</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3.4612283</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0085042537</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.016635864</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0044388573</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0041883478</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.00020046944</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>5.0040135e-05</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.5109999e-07</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>7.4138108e-10</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.0070084223</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2.4266168e-07</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>7.3216886e-10</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2.0003899e-14</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>7.8233225e-12</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>8.430484e-09</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1.7840992e-12</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>7.408117600000001e-12</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>2.2992107e-07</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0070081924</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1.1284123e-05</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>5.1073801e-08</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>7.2910037e-06</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1.3899055e-10</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.6023103e-07</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>4.2399303e-10</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>5.9121947e-08</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>3.7221294e-06</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>7.606133500000001e-15</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.26148888</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>3.4943951e-05</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>2.0235331e-05</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>5.4274902e-06</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.08144172199999999</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.039223332</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.00107191383</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.00064796005</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.00064796005</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>5.9979409e-06</v>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -508,18 +1262,297 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>B.046.04.102</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Electricity Tianjin production</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>0.037915243784</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.00040054408</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0006146868099999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.6228894e-05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.036873784</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.00033313892</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00028154789</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.00027621221</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00012433187</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.6228894e-05</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>0.2458252266666667</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="Z3" t="n">
+        <v>6.3117561</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2.8976754</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3.3266101</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.087470619</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.0041742045</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.003938708</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.00018848632</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4.7010198e-05</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2.3613358e-07</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6.970648000000001e-10</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0065840613</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2.2812581e-07</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>6.8831063e-10</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.880563e-14</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>7.401765099999999e-12</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>8.000363500000001e-09</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.6879635e-12</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>7.0473931e-12</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1.0054409e-06</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0065830559</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1.0606977e-05</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>4.8586857e-08</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>6.8542596e-06</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1.3150109e-10</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.5130965e-07</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>4.0114629e-10</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>5.595339e-08</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>3.4963347e-06</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3.3261492e-14</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.24582523</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>3.324242e-05</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>1.9132986e-05</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>5.1320263e-06</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.07650124</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.036873784</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.00101523089</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.0006146868099999999</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.0006146868099999999</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>2.6228894e-05</v>
+      </c>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -538,18 +1571,297 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>B.046.04.103</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Electricity Hebei production</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>0.03133640994</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00033455448</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.00051742098</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.761948e-05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.030406815</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0002817711</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.00023564988</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0002314056</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.00010314888</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7.761948e-05</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0.2027121</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="Z4" t="n">
+        <v>5.5996635</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2.3840077</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2.9570922</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.24447294</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.014090694</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.0034444032</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0032502354</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.00015547575</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>3.869209e-05</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.9485823e-07</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>5.7498427e-10</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0054190602</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.8811683e-07</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>5.6759389e-10</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1.5507476e-14</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>6.201065e-12</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>6.735203e-09</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1.4141453e-12</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>5.9607317e-12</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>2.9754134e-06</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.0054160848</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>8.743316e-06</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>4.1095085e-08</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>5.6521513e-06</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1.1016924e-10</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.2617795e-07</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>3.3607311e-10</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>4.6902048e-08</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>2.8765433e-06</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>9.8431134e-14</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.2027121</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>2.8116659e-05</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>1.6013921e-05</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>4.2905311e-06</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.062939949</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.030406815</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.00085197546</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.00051742098</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.00051742098</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>7.761948e-05</v>
+      </c>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -568,18 +1880,297 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>B.046.04.104</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Electricity Shanxi production</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
+        <v>0.034799711948</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0003691789</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0005681013300000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.0644718e-05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.033811787</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.00030833873</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0002597626</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.00025490251</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.00011427639</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5.0644718e-05</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0.2254119133333334</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="Z5" t="n">
+        <v>5.9748933</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.6546796</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.1518058</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.15846789</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.009940053500000001</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0038285053</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0036125765</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0001728535</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>4.3075259e-05</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2.1658133e-07</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>6.392511e-10</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.0060329495</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.0918226e-07</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6.3115336e-10</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.7244011e-14</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>6.8307208e-12</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>7.3922405e-09</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.5577376e-12</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>6.5227571e-12</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>1.9413809e-06</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.0060310081</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>9.724654600000001e-06</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>4.4969859e-08</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>6.2850823e-06</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>1.2135581e-10</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.3932975e-07</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>3.7019796e-10</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>5.1645134e-08</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>3.2031359e-06</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>6.4223789e-14</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.22541191</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>3.0767722e-05</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>1.7652535e-05</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>4.7300347e-06</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.070085931</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.033811787</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.0009372802300000001</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.0005681013300000001</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.0005681013300000001</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>5.0644718e-05</v>
+      </c>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -598,18 +2189,297 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>B.046.04.105</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Electricity Inner Mongolia production</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>0.032544768348</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.00034667354</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.00053497692</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.970288799999999e-05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.031593415</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.00029074232</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0002442346</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.00023971589</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.00010695765</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.970288799999999e-05</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>0.2106227666666667</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="Z6" t="n">
+        <v>5.730846</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2.4786361</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.0251652</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.22081342</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0062312676</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0035781579</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0033764027</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.00016153028</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>4.0224885e-05</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.0242222e-07</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>5.9737531e-10</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0056337374</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.9545793e-07</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.8974375e-10</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1.6112642e-14</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>6.4237591e-12</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>6.9578726e-09</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.4649304e-12</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>6.1505135e-12</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>2.671944e-06</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.0056310655</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>9.0855498e-06</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>4.2403499e-08</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>5.8727216e-06</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1.1412566e-10</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.3066489e-07</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>3.4814225e-10</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>4.8575539e-08</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>2.9907219e-06</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>8.839191300000001e-14</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.21062277</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>2.9011856e-05</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>1.6597308e-05</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>4.4402194e-06</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.065438225</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.031593415</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.00088165046</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.00053497692</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.00053497692</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>6.970288799999999e-05</v>
+      </c>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -628,18 +2498,297 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>B.046.04.106</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Electricity Liaoning production</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
+        <v>0.030678567443</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.000285248941</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.00053810491</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.006404240592000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.023450973</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.00032932831</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0002087766</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.00020563579</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7.9613151e-05</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5.6522792e-05</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0063477178</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>0.15633982</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="Z7" t="n">
+        <v>5.9187545</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.8317948</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.78521992</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.1105381</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.16670634</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.024495363</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.002691063</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0025406738</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.00012059486</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>2.9794276e-05</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.5231858e-07</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>4.459869e-10</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.0041728678</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.4508335e-07</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>4.377515e-10</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.1959996e-14</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>5.5105014e-12</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>7.229711e-09</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.2566631e-12</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>6.9667815e-12</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>1.1322371e-05</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.0041615454</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>7.8967089e-06</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>4.8031097e-08</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>4.3591691e-06</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>9.790056000000001e-11</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.1082502e-07</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>2.9864731e-10</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>4.2426247e-08</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>3.3358609e-06</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>7.1677916e-14</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.15633982</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>3.2862177e-05</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>1.418771e-05</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>3.9936091e-06</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.048361033</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.023450973</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.000823353851</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.00053810491</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.00053810491</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.006404240592000001</v>
+      </c>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -658,18 +2807,297 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>B.046.04.107</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Electricity Jilin production</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>0.025641624152</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.000275633572</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.00042703147</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.00011315311</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.024825806</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.00023292675</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.00019410472</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.000190649</v>
+      </c>
+      <c r="O8" t="n">
+        <v>8.4984572e-05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.00011315311</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.1655053733333333</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="Z8" t="n">
+        <v>4.9863687</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.9416077</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2.6388423</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.29273817</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.11318057</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.0028132279</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.002654744</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.00012695827</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>3.1525671e-05</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.5915731e-07</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>4.6952023e-10</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.0044153601</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.5358898e-07</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>4.6341504e-10</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1.2661161e-14</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>5.1088949e-12</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>5.5632218e-09</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1.1650773e-12</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>4.9274531e-12</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>4.3375358e-06</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.0044110226</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>7.1345116e-06</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>3.3971351e-08</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>4.6147289e-06</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>9.0765546e-11</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.0405137e-07</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>2.7688183e-10</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>3.864878e-08</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>2.3427435e-06</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>1.4349218e-13</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.16550537</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>2.3242703e-05</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>1.3190661e-05</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>3.5397032e-06</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.05126019</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.024825806</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.0007026650419999999</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.00042703147</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.00042703147</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0.00011315311</v>
+      </c>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -688,18 +3116,297 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>B.046.04.108</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Electricity Heilongjiang production</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
+        <v>0.030296772568</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.000323664255</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.00050033809</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.4051223e-05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.029388719</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.00027234535</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.00022799274</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.00022385139</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9.9812865e-05</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>8.4051223e-05</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0.1959247933333333</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="Z9" t="n">
+        <v>5.488086</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2.3035213</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2.8991926</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.24886544</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.036506699</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.0033291015</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.0031414428</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.0001502704</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>3.7388285e-05</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1.883359e-07</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>5.5573372e-10</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.0052364545</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1.8181821e-07</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>5.4858942e-10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1.4988247e-14</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>5.9986319e-12</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>6.5116946e-09</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1.3679807e-12</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>5.7613346e-12</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>3.2219636e-06</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.0052332325</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>8.4499119e-06</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>3.9720382e-08</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>5.4629031e-06</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1.0657277e-10</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.2205956e-07</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>3.2510204e-10</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>4.5368784e-08</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>2.7794284e-06</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>1.0658738e-13</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.19592479</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>2.7176107e-05</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>1.549357e-05</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>4.1498606e-06</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.060815035</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.029388719</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.000824002345</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.00050033809</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.00050033809</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>8.4051223e-05</v>
+      </c>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW9" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -718,18 +3425,297 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>B.046.04.109</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Electricity Shanghai production</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
+        <v>0.040032666482</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0004215930000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.00064507317</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.0073312e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.038955927</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.00034880896</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.00029626421</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.00029049654</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.00013109646</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.0073312e-05</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>0.25970618</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="Z10" t="n">
+        <v>6.5416111</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3.0634813</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.4458861</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.032243822</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.0044088997</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.004160095</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.00019910939</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>4.9695303e-05</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2.4940617e-07</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>7.3635131e-10</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.0069601264</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2.4100733e-07</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>7.271773e-10</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.9867523e-14</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>7.7845478e-12</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>8.3910544e-09</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1.7752566e-12</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>7.378885200000001e-12</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>3.8614365e-07</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.0069597403</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1.1207205e-05</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>5.0872264e-08</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>7.2412974e-06</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1.3830168e-10</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.5924708e-07</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>4.2189159e-10</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>5.8832271e-08</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>3.696396e-06</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>1.277421e-14</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.25970618</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>3.4806062e-05</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>2.0133054e-05</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>5.3962753e-06</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.080878663</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.038955927</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.00106666617</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.00064507317</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.00064507317</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>1.0073312e-05</v>
+      </c>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW10" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -748,18 +3734,297 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>B.046.04.110</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Electricity Jiangsu production</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
+        <v>0.035866687477</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.00036524887</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.00059466217</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.002223732437</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.032683044</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.00033501714</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.00025964503</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.00025494787</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.000110301</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.4000537e-05</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.0021897319</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>0.21788696</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="Z11" t="n">
+        <v>6.2249096</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2.5651329</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.27087233</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3.2773572</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.10646644</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.0050806385</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.0037120884</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.003503139</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.00016730873</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>4.1640724e-05</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>2.1002032e-07</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>6.187453e-10</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.0058320342</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>2.021991e-07</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>6.1008349e-10</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1.6668353e-14</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>6.8319363e-12</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>7.8143887e-09</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1.5580147e-12</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>7.0871261e-12</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>4.4617252e-06</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.0058275724</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>9.798888100000001e-06</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>4.8860789e-08</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>6.0752667e-06</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>1.2137741e-10</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.3897655e-07</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>3.7026383e-10</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>5.1906377e-08</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>3.4833861e-06</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>4.31169e-14</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.21788696</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>3.342984e-05</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>1.7644546e-05</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>4.7935827e-06</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0.067721819</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0.032683044</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0.0009599110400000001</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0.00059466217</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0.00059466217</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0.002223732437</v>
+      </c>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW11" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -778,18 +4043,297 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>B.046.04.111</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Electricity Zhejiang production</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
+        <v>0.034914463095</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.00034144433</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.00058887613</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.004256642635</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0297275</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.00034376874</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.00024510739</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.00024093311</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.00010051122</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.8421535e-05</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0042282211</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>0.1981833333333334</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="Z12" t="n">
+        <v>6.2476254</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2.3302647</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.52303576</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3.2852475</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.066381159</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.042696341</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.0033884968</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.0031982291</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.00015241721</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>3.7850406e-05</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1.9174036e-07</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>5.6367313e-10</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.0053011773</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.8391413e-07</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>5.5491333e-10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1.5161025e-14</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>6.4563774e-12</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>7.8197656e-09</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1.472369e-12</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>7.2722618e-12</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>7.1880892e-06</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.0052939893</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>9.3185265e-06</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>5.013717e-08</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>5.5258772e-06</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1.1470516e-10</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.3126531e-07</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>3.4991003e-10</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>4.9310234e-08</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>3.5614719e-06</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>3.6042034e-14</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0.19818333</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>3.4303122e-05</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>1.665662e-05</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>4.6028156e-06</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0.061521085</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0.0297275</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0.00093032046</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0.00058887613</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0.00058887613</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0.004256642635</v>
+      </c>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW12" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -808,18 +4352,297 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>B.046.04.112</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Electricity Anhui production</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
+        <v>0.037374126013</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.00039468171</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0006051702400000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.8392063e-05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.036345882</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.00032782593</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.00027734431</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.00027205589</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.00012262582</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.8392063e-05</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>0.24230588</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="Z13" t="n">
+        <v>6.2539617</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2.8559855</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3.2966195</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.079548333</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.021808425</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.0041142932</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.0038821743</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.00018578442</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>4.6334539e-05</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2.3274426e-07</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>6.8707256e-10</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.0064894313</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.2485986e-07</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6.7845646e-10</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1.85364e-14</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>7.2903865e-12</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>7.877114e-09</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>1.6625637e-12</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>6.9349995e-12</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>1.0883624e-06</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.0064883429</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>1.0454752e-05</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>4.7811982e-08</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>6.7561308e-06</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1.2952232e-10</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.4914431e-07</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>3.9511001e-10</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>5.5108587e-08</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>3.4460316e-06</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>3.600466e-14</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0.24230588</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>3.2712262e-05</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>1.8847326e-05</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>5.0570829e-06</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0.07540058700000001</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0.036345882</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0.0009998519500000001</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0.0006051702400000001</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0.0006051702400000001</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>2.8392063e-05</v>
+      </c>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW13" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -838,18 +4661,297 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>B.046.04.113</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Electricity Fujian production</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
+        <v>0.031480387471</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.000290649952</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0005460428999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.006567300619</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.024076394</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.00033385443</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.00021218847</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.00020886513</v>
+      </c>
+      <c r="O14" t="n">
+        <v>8.1784822e-05</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.1353219e-05</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0065259474</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>0.1605092933333334</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="Z14" t="n">
+        <v>6.0187442</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.8819546</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.80726712</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.1620838</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.07126175899999999</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.09617690700000001</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.0027615425</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.002607154</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.00012378296</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>3.0605598e-05</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.5630419e-07</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>4.5777722e-10</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.0042864984</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.4895262e-07</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>4.4942602e-10</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1.2278961e-14</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>5.5970395e-12</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>7.3459741e-09</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1.276398e-12</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>7.0625295e-12</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>1.0997941e-05</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.0042755004</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>8.108906400000001e-06</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>4.8691212e-08</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>4.475425e-06</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>9.943801e-11</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.133126e-07</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>3.0333732e-10</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>4.3086404e-08</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>3.4279884e-06</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>5.2441014e-14</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0.16050929</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>3.3313818e-05</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>1.4419568e-05</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>4.0753658e-06</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0.049685297</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0.024076394</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0.0008366928519999999</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0.0005460428999999999</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0.0005460428999999999</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0.006567300619</v>
+      </c>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW14" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -868,18 +4970,297 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>B.046.04.114</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Electricity Jiangxi production</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
+        <v>0.033838557167</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.00035855962</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.00055081023</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.1835317e-05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.032877352</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.000298888</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.00025192223</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.00024720659</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.00011135303</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.1835317e-05</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>0.2191823466666667</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="Z15" t="n">
+        <v>5.8721818</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2.5805887</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.0985069</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.12876753</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.064318693</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.0037224615</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.0035125177</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.00016807006</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>4.1873761e-05</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>2.1058259e-07</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>6.2156088e-10</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.0058646724</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>2.0340122e-07</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>6.1371057e-10</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.676745e-14</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>6.6244902e-12</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>7.174751e-09</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>1.5107069e-12</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>6.3228315e-12</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>1.9870205e-06</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.0058626854</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>9.454853799999999e-06</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>4.3591511e-08</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>6.1113854e-06</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>1.1769188e-10</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.3557771e-07</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>3.5902107e-10</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>5.0084544e-08</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>3.1137378e-06</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>6.5733615e-14</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0.21918235</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>2.9824677e-05</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>1.7119732e-05</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>4.5995024e-06</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0.068129864</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0.032877352</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0.0009093698500000001</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0.00055081023</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0.00055081023</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>5.1835317e-05</v>
+      </c>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr"/>
+      <c r="CS15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW15" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -898,18 +5279,297 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>B.046.04.115</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Electricity Shandong production</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
+        <v>0.03557898684</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0003712783</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.00058372413</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.00089187741</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.033732107</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.00032150531</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.00026221882</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.00025736369</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.00011391461</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4.106838e-05</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.00085080903</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>0.2248807133333333</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="Z16" t="n">
+        <v>6.1115408</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2.6483836</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.10524605</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3.221088</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.12765832</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.009164841599999999</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.0038237589</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.0036082489</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.00017253068</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>4.2979274e-05</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>2.1632188e-07</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>6.3805726e-10</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.0060195061</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>2.086893e-07</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>6.2966599e-10</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1.7203374e-14</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>6.896674e-12</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>7.6256832e-09</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.5727781e-12</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>6.8012898e-12</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>2.8014568e-06</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.0060167046</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>9.8568954e-06</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>4.6890147e-08</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>6.2702709e-06</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>1.2252755e-10</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.4058773e-07</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>3.7377236e-10</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>5.2240254e-08</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>3.34641e-06</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>5.2079803e-14</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0.22488071</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>3.2081556e-05</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>1.7819451e-05</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>4.8013024e-06</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0.069919711</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0.033732107</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0.00095500243</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0.00058372413</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0.00058372413</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0.00089187741</v>
+      </c>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW16" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -928,18 +5588,297 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>B.046.04.116</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Electricity Henan production</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
+        <v>0.034169174163</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.00036214484</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0005563112599999999</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.2166063e-05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.033198552</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.00030165054</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.00025466072</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.00024983756</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.00011230728</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5.2166063e-05</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>0.22132368</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="Z17" t="n">
+        <v>5.9079018</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2.6063552</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3.1170427</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.13938544</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.045118435</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.0037587545</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.0035467511</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.0001697115</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>4.2291809e-05</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2.1263496e-07</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>6.276313e-10</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.0059232226</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>2.0538838e-07</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>6.1970631e-10</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.6931262e-14</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>6.6949934e-12</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>7.2398895e-09</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1.5267851e-12</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>6.3812718e-12</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1.9996991e-06</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0.0059212229</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>9.5477729e-06</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>4.3994416e-08</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>6.1710915e-06</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1.1894446e-10</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.3676373e-07</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>3.6284207e-10</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>5.0613623e-08</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>3.1448278e-06</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>6.6153043e-14</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0.22132368</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>3.0100339e-05</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>1.730583e-05</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>4.6401451e-06</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0.068810124</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0.033198552</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0.0009184561</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0.0005563112599999999</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0.0005563112599999999</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>5.2166063e-05</v>
+      </c>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW17" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -958,18 +5897,297 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>B.046.04.117</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Electricity Hubei production</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
+        <v>0.019173858417</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.000204242407</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0003105061</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.00012353391</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.018535576</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.00016888502</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.00014162108</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.00013904518</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6.519722699999999e-05</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.00012353391</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>0.1235705066666667</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="Z18" t="n">
+        <v>4.2956038</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.4433247</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.2803917</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.10315231</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.46873508</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.0020992345</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.0019810325</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>9.4756075e-05</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>2.3445894e-05</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.1876694e-07</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>3.5042927e-10</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.0032837386</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.1467343e-07</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>3.4599742e-10</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>9.453143700000001e-15</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>3.7260473e-12</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>4.0897829e-09</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.4972054e-13</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>3.5726813e-12</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>4.7354664e-06</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0.0032790031</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>5.3187127e-06</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>2.4631144e-08</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>3.4454736e-06</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>6.6197627e-11</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>7.864626400000001e-08</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>2.0193697e-10</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>2.8178127e-08</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>1.7415153e-06</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>1.5665633e-13</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0.12357051</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>1.685227e-05</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>9.6240612e-06</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>2.6557268e-06</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0.03810507</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>0.018535576</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0.000514748507</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0.0003105061</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0.0003105061</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0.00012353391</v>
+      </c>
+      <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
+      <c r="CR18" t="inlineStr"/>
+      <c r="CS18" t="inlineStr"/>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr"/>
+      <c r="CV18" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW18" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -988,18 +6206,297 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>B.046.04.118</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Electricity Hunan production</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
+        <v>0.023680010185</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.000252447445</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.00038664734</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0001074684</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.022933447</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.00021013028</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.00017651706</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.00017325294</v>
+      </c>
+      <c r="O19" t="n">
+        <v>7.9194505e-05</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0001074684</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>0.1528896466666667</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="Z19" t="n">
+        <v>4.7792129</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.7921759</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2.5313453</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.15638857</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.29930306</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.0025973839</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.0024510365</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.00011724725</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2.9100192e-05</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1.4694463e-07</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>4.3360669e-10</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.0040756571</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.4188159e-07</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>4.2809102e-10</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.1696058e-14</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>4.6427259e-12</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>5.0583944e-09</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1.058768e-12</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>4.4452048e-12</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>4.1196221e-06</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0.0040715375</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>6.5876267e-06</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>3.0646585e-08</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>4.2629691e-06</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>8.2483503e-11</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>9.6130075e-08</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>2.5161731e-10</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>3.5107607e-08</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>2.1624391e-06</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>1.3628327e-13</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0.15288965</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>2.0967947e-05</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>1.1995467e-05</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>3.2562996e-06</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0.047315057</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0.022933447</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0.000639094785</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0.00038664734</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0.00038664734</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0.0001074684</v>
+      </c>
+      <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="inlineStr"/>
+      <c r="CR19" t="inlineStr"/>
+      <c r="CS19" t="inlineStr"/>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr"/>
+      <c r="CV19" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW19" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1018,18 +6515,297 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>B.046.04.119</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Electricity Guangdong production</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
+        <v>0.034733906087</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.000336967229</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0005879886400000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.004654390218</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.02915456</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.00034545529</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.00024253335</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.00023841699</v>
+      </c>
+      <c r="O20" t="n">
+        <v>9.8550239e-05</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.8943918e-05</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.0046254463</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>0.1943637333333333</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="Z20" t="n">
+        <v>6.2526771</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2.2849487</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.57217297</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3.2871095</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.067633479</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.040812571</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.0033257524</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.0031391021</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.00014953073</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>3.7119572e-05</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.8819557e-07</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>5.5299826e-10</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.0051988195</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.8036955e-07</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>5.4421846e-10</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.4868826e-14</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>6.3889521e-12</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>7.819635499999999e-09</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.4569927e-12</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>7.3079401e-12</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>7.7810537e-06</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0.0051910385</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>9.2260096e-06</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>5.0383147e-08</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>5.4193766e-06</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>1.1350727e-10</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.2971269e-07</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>3.4625584e-10</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>4.8845232e-08</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>3.5772321e-06</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>3.6704481e-14</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0.19436373</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>3.4471415e-05</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>1.6481697e-05</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>4.5641981e-06</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0.060324702</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0.02915456</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0.0009249558690000001</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0.0005879886400000001</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0.0005879886400000001</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0.004654390218</v>
+      </c>
+      <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
+      <c r="CR20" t="inlineStr"/>
+      <c r="CS20" t="inlineStr"/>
+      <c r="CT20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr"/>
+      <c r="CV20" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW20" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1048,18 +6824,297 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>B.046.04.120</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Electricity Guangxi production</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
+        <v>0.025378481019</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.000248786084</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.00043272114</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.003389166795</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.021307807</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.00025439343</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.00017832771</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0001754179</v>
+      </c>
+      <c r="O21" t="n">
+        <v>7.3368184e-05</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8.8321495e-05</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0033008453</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>0.1420520466666667</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="Z21" t="n">
+        <v>5.1634653</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.66251</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.40831832</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.72443</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.14167018</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.22653677</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.0024314898</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.0022951658</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.00010929843</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>2.7025642e-05</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1.3759987e-07</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>4.0421017e-10</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.0037851039</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.318243e-07</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>3.9774573e-10</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1.0866982e-14</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>4.700741e-12</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>5.770865e-09</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1.0719983e-12</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>5.3815703e-12</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>8.1466489e-06</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0.0037769572</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>6.7217128e-06</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>3.7102172e-08</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>3.960788e-06</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>8.3514211e-11</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>9.623274e-08</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>2.5476151e-10</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>3.5940503e-08</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>2.591311e-06</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>1.1200262e-13</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0.14205205</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>2.5384766e-05</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>1.2118512e-05</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>3.3809215e-06</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0.04389176</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0.021307807</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0.000681507224</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0.00043272114</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0.00043272114</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0.003389166795</v>
+      </c>
+      <c r="CP21" t="inlineStr"/>
+      <c r="CQ21" t="inlineStr"/>
+      <c r="CR21" t="inlineStr"/>
+      <c r="CS21" t="inlineStr"/>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr"/>
+      <c r="CV21" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW21" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1078,18 +7133,297 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>B.046.04.121</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Electricity Hainan production</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
+        <v>0.033893561972</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.000321878409</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.00058140715</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.005670818413</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.027319458</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.00034832972</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.00023307743</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.00022936959</v>
+      </c>
+      <c r="O22" t="n">
+        <v>9.2508819e-05</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.0186213e-05</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0056406322</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>0.18212972</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="Z22" t="n">
+        <v>6.2233437</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2.1386621</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.69775262</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.2699469</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.07426829</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.042713844</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.0031240441</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.0029490173</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.00014026935</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>3.4757461e-05</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.767996e-07</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>5.187476e-10</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.0048679917</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.6901638e-07</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>5.0996321e-10</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.3932923e-14</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>6.1465053e-12</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>7.777073599999999e-09</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1.401703e-12</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>7.3687473e-12</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>9.2929338e-06</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0.0048586988</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>8.8820399e-06</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>5.0802371e-08</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>5.0782598e-06</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>1.0919992e-10</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.2465047e-07</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>3.3311619e-10</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>4.7142984e-08</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>3.5807419e-06</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>3.8279865e-14</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0.18212972</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>3.4758242e-05</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>1.5839107e-05</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>4.4310675e-06</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0.056462605</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0.027319458</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0.000903285559</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0.00058140715</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0.00058140715</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0.005670818413</v>
+      </c>
+      <c r="CP22" t="inlineStr"/>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr"/>
+      <c r="CS22" t="inlineStr"/>
+      <c r="CT22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr"/>
+      <c r="CV22" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW22" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1108,18 +7442,297 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>B.046.04.122</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Electricity Chongqing production</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
+        <v>0.031928400548</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.00033688426</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.00051408477</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.3349518e-05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.031024082</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.00027811744</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.00023596733</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.00023139315</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.00010549111</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5.3349518e-05</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>0.2068272133333333</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="Z23" t="n">
+        <v>5.669548</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2.4344189</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2.9933565</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.048748105</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.19302453</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.0035115131</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.0033134394</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.00015857055</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>3.9503164e-05</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.9864744e-07</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>5.8642953e-10</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.005532656</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.9193565e-07</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>5.791162e-10</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.5822282e-14</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>6.2007314e-12</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>6.705589e-09</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1.4140692e-12</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>5.8834404e-12</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>2.0450649e-06</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0.0055306109</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>8.919970000000001e-06</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>4.0562215e-08</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>5.7668915e-06</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>1.1016331e-10</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.2783549e-07</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>3.3605503e-10</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>4.6865078e-08</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>2.9373694e-06</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>6.765381e-14</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0.20682721</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>2.7752077e-05</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>1.6035494e-05</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>4.3266611e-06</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0.064270849</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>0.031024082</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0.00085096903</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0.00051408477</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0.00051408477</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>5.3349518e-05</v>
+      </c>
+      <c r="CP23" t="inlineStr"/>
+      <c r="CQ23" t="inlineStr"/>
+      <c r="CR23" t="inlineStr"/>
+      <c r="CS23" t="inlineStr"/>
+      <c r="CT23" t="inlineStr"/>
+      <c r="CU23" t="inlineStr"/>
+      <c r="CV23" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW23" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1138,18 +7751,297 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>B.046.04.123</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Electricity Sichuan production</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
+        <v>0.00754055835</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.1039691e-05</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.000117037539</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.00017718642</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0071652947</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6.363935e-05</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5.3398189e-05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.2418663e-05</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.8621028e-05</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.00017718642</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>0.04776863133333333</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="Z24" t="n">
+        <v>3.0464557</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.54225211</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.6321859</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.046923079</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.82509456</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.00081166485</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.00076620229</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.6618222e-05</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>8.8443349e-06</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>4.5935389e-08</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.3542242e-10</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.0012387024</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.432929e-08</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.3375217e-10</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>3.6543003e-15</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.4046831e-12</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.6046946e-09</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>3.2033627e-13</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.3462598e-12</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>6.7921462e-06</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0.0012319102</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>2.0394666e-06</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>9.2815216e-09</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>1.3319162e-06</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>2.4955853e-11</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>3.3263623e-08</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>7.612825e-11</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1.0622605e-08</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>6.5428131e-07</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>2.2469438e-13</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0.047768631</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>6.3502819e-06</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>3.6287496e-06</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>1.1018141e-06</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0.014315944</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>0.0071652947</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0.00019807723</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>0.000117037539</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0.000117037539</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>0.00017718642</v>
+      </c>
+      <c r="CP24" t="inlineStr"/>
+      <c r="CQ24" t="inlineStr"/>
+      <c r="CR24" t="inlineStr"/>
+      <c r="CS24" t="inlineStr"/>
+      <c r="CT24" t="inlineStr"/>
+      <c r="CU24" t="inlineStr"/>
+      <c r="CV24" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW24" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1168,18 +8060,297 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>B.046.04.124</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Electricity Guizhou production</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
+        <v>0.027672480303</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.000293710097</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.00044996424</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8.1812966e-05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.026846993</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.00024441946</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.00020554478</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0002017489</v>
+      </c>
+      <c r="O25" t="n">
+        <v>9.196119699999999e-05</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>8.1812966e-05</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>0.1789799533333333</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="Z25" t="n">
+        <v>5.2091253</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2.1022931</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2.7544348</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.11856599</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.23383146</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.0030399974</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.0028686293</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.00013724451</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>3.4123562e-05</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.7198018e-07</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>5.0756104e-10</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.0047792103</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.660934e-07</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>5.0114387e-10</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.3691966e-14</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>5.4063432e-12</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>5.8813742e-09</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>1.23291e-12</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>5.1705758e-12</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>3.1361637e-06</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0.0047760742</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>7.7156552e-06</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>3.5647512e-08</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>4.990436e-06</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>9.6050065e-11</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.1167672e-07</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>2.9300234e-10</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>4.0879391e-08</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>2.5366265e-06</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>1.0374899e-13</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0.17897995</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>2.4389508e-05</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>1.3968086e-05</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>3.7837664e-06</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>0.05550243</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>0.026846993</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>0.000743674337</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>0.00044996424</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>0.00044996424</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>8.1812966e-05</v>
+      </c>
+      <c r="CP25" t="inlineStr"/>
+      <c r="CQ25" t="inlineStr"/>
+      <c r="CR25" t="inlineStr"/>
+      <c r="CS25" t="inlineStr"/>
+      <c r="CT25" t="inlineStr"/>
+      <c r="CU25" t="inlineStr"/>
+      <c r="CV25" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW25" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1198,18 +8369,297 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>B.046.04.125</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Electricity Yunnan production</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
+        <v>0.006089244984</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6.723993699999999e-05</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9.8200997e-05</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.00019223745</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0057315666</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.4169336e-05</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.4031661e-05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.3361433e-05</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.3878504e-05</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.00019223745</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>0.038210444</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="Z26" t="n">
+        <v>2.8880417</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.42798024</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1.549982</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.11828331</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.79179613</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.00065044419</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.00061413714</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>2.9312192e-05</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>6.9948572e-06</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>3.6818774e-08</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.0840308e-10</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.0009796718800000001</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.5459292e-08</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.0698924e-10</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>2.9230989e-15</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1.161973e-12</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1.3583199e-09</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>2.6498653e-13</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.1459262e-12</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>7.3691022e-06</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0.00097230277</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>1.6264763e-06</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>7.900361300000001e-09</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>1.0654086e-06</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>2.0643822e-11</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>2.7880974e-08</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>6.297432600000001e-11</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>8.8016107e-09</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>5.1640089e-07</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>2.4378094e-13</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>0.038210444</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>5.4053122e-06</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>2.9922339e-06</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>9.2579848e-07</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>0.011299064</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>0.0057315666</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>0.000165440934</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>9.8200997e-05</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>9.8200997e-05</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>0.00019223745</v>
+      </c>
+      <c r="CP26" t="inlineStr"/>
+      <c r="CQ26" t="inlineStr"/>
+      <c r="CR26" t="inlineStr"/>
+      <c r="CS26" t="inlineStr"/>
+      <c r="CT26" t="inlineStr"/>
+      <c r="CU26" t="inlineStr"/>
+      <c r="CV26" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW26" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1228,18 +8678,297 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>B.046.04.126</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Electricity Tibet production</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
+        <v>0.001769417688</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.0900964e-05</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.4757974e-05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.00020706765</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0015166911</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.4301372e-05</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.0456602e-05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.043211e-05</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.0468854e-05</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.00020706765</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>0.010111274</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="Z27" t="n">
+        <v>2.4246647</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.09372343900000001</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1.3095272</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.061264781</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.96014929</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.00017292043</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.00016358878</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>7.754701799999999e-06</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.5769567e-06</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>9.807480500000001e-09</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>2.8678631e-11</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.00022086228</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>9.3832622e-09</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>2.8311567e-11</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>7.7351246e-16</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2.7955326e-13</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>4.2393876e-10</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>6.375178099999999e-14</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>3.0253863e-13</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>7.937593100000001e-06</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0.00021292469</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>4.1034016e-07</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>2.0857927e-09</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>2.8192915e-07</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>4.9665935e-12</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.1088603e-08</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>1.5150677e-11</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>2.1295498e-09</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>1.1308669e-07</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>2.6258748e-13</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>0.010111274</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>1.427069e-06</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>7.105932e-07</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>3.4827844e-07</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ27" t="n">
+        <v>0.0024743832</v>
+      </c>
+      <c r="CK27" t="n">
+        <v>0.0015166911</v>
+      </c>
+      <c r="CL27" t="n">
+        <v>4.565893799999999e-05</v>
+      </c>
+      <c r="CM27" t="n">
+        <v>2.4757974e-05</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>2.4757974e-05</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>0.00020706765</v>
+      </c>
+      <c r="CP27" t="inlineStr"/>
+      <c r="CQ27" t="inlineStr"/>
+      <c r="CR27" t="inlineStr"/>
+      <c r="CS27" t="inlineStr"/>
+      <c r="CT27" t="inlineStr"/>
+      <c r="CU27" t="inlineStr"/>
+      <c r="CV27" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW27" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1258,18 +8987,297 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>B.046.04.127</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Electricity Shaanxi production</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
+        <v>0.035887139277</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.00037959892</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0005826474399999999</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.8981917e-05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.034885911</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.00031586581</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.00026678163</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00026173464</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.00011786428</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.8981917e-05</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>0.23257274</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="Z28" t="n">
+        <v>6.0932509</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2.7400568</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.2132237</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.10621693</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.03375348</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.0039494277</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.0037266412</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.00017832959</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>4.4456966e-05</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>2.2341973e-07</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>6.5950294e-10</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.0062264658</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>2.158275e-07</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>6.5120367e-10</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.7791815e-14</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>7.0138042e-12</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>7.5852182e-09</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.5994895e-12</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>6.6819888e-12</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>1.4943068e-06</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0.0062249715</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>1.0033937e-05</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>4.606765e-08</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>6.4847451e-06</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>1.2460851e-10</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.4344549e-07</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>3.8012035e-10</v>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>5.3022395e-08</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>3.306152e-06</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>4.9433908e-14</v>
+      </c>
+      <c r="BZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB28" t="n">
+        <v>0.23257274</v>
+      </c>
+      <c r="CC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD28" t="n">
+        <v>3.1518815e-05</v>
+      </c>
+      <c r="CE28" t="n">
+        <v>1.8129523e-05</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH28" t="n">
+        <v>4.8654084e-06</v>
+      </c>
+      <c r="CI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ28" t="n">
+        <v>0.07233996600000001</v>
+      </c>
+      <c r="CK28" t="n">
+        <v>0.034885911</v>
+      </c>
+      <c r="CL28" t="n">
+        <v>0.00096224636</v>
+      </c>
+      <c r="CM28" t="n">
+        <v>0.0005826474399999999</v>
+      </c>
+      <c r="CN28" t="n">
+        <v>0.0005826474399999999</v>
+      </c>
+      <c r="CO28" t="n">
+        <v>3.8981917e-05</v>
+      </c>
+      <c r="CP28" t="inlineStr"/>
+      <c r="CQ28" t="inlineStr"/>
+      <c r="CR28" t="inlineStr"/>
+      <c r="CS28" t="inlineStr"/>
+      <c r="CT28" t="inlineStr"/>
+      <c r="CU28" t="inlineStr"/>
+      <c r="CV28" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW28" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1288,18 +9296,297 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>B.046.04.128</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Electricity Gansu production</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
+        <v>0.02077809168</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.00022581333</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.00035226191</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.00014244744</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.020057569</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.00019349454</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.00015876737</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.00015619943</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6.961389999999999e-05</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.00014244744</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>0.1337171266666667</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="Z29" t="n">
+        <v>4.4608343</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.5625136</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2.3661329</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.34617201</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.18601579</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.0022747026</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.0021467105</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.00010260761</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>2.5384427e-05</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.2869967e-07</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>3.7946601e-10</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.0035552419</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.2408949e-07</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>3.7440795e-10</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.022936e-14</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>4.1857364e-12</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>4.6059941e-09</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>9.545520899999999e-13</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>4.0932836e-12</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>5.4604851e-06</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0.0035497814</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>5.759485e-06</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>2.8220334e-08</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>3.7283882e-06</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>7.4364546e-11</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>8.555608e-08</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>2.268503e-10</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>3.1690241e-08</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>1.8853287e-06</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>1.8064103e-13</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>0.13371712</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>1.9307942e-05</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>1.0789261e-05</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>2.915937e-06</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>0.041251766</v>
+      </c>
+      <c r="CK29" t="n">
+        <v>0.020057569</v>
+      </c>
+      <c r="CL29" t="n">
+        <v>0.0005780752400000001</v>
+      </c>
+      <c r="CM29" t="n">
+        <v>0.00035226191</v>
+      </c>
+      <c r="CN29" t="n">
+        <v>0.00035226191</v>
+      </c>
+      <c r="CO29" t="n">
+        <v>0.00014244744</v>
+      </c>
+      <c r="CP29" t="inlineStr"/>
+      <c r="CQ29" t="inlineStr"/>
+      <c r="CR29" t="inlineStr"/>
+      <c r="CS29" t="inlineStr"/>
+      <c r="CT29" t="inlineStr"/>
+      <c r="CU29" t="inlineStr"/>
+      <c r="CV29" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW29" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1318,18 +9605,297 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>B.046.04.129</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Electricity Qinghai production</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="G30" t="n">
+        <v>0.00573103766</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6.9414135e-05</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.000113201795</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.00022153183</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0053268899</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6.607523100000001e-05</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4.7126564e-05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.712278e-05</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.2291355e-05</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.00022153183</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>0.03551259933333334</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="Z30" t="n">
+        <v>2.8387454</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.39242036</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1.5244012</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.40025841</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.52166536</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.00060934003</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.00057557011</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>2.7343864e-05</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>6.4260603e-06</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>3.4506601e-08</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1.0112376e-10</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.00090000844</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.2955692e-08</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>9.9435277e-11</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>2.7167138e-15</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1.2627673e-12</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>1.5496466e-09</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>2.8797254e-13</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1.3977896e-12</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>8.492053300000001e-06</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>0.00089151639</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>1.5109318e-06</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>9.6367841e-09</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>9.901854899999999e-07</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>2.2434551e-11</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>2.78907e-08</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>6.8436976e-11</v>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>9.6333294e-09</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>4.7349433e-07</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>2.8092985e-13</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB30" t="n">
+        <v>0.035512599</v>
+      </c>
+      <c r="CC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD30" t="n">
+        <v>6.5933474e-06</v>
+      </c>
+      <c r="CE30" t="n">
+        <v>3.2025524e-06</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH30" t="n">
+        <v>9.588208599999999e-07</v>
+      </c>
+      <c r="CI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ30" t="n">
+        <v>0.010360251</v>
+      </c>
+      <c r="CK30" t="n">
+        <v>0.0053268899</v>
+      </c>
+      <c r="CL30" t="n">
+        <v>0.00018261593</v>
+      </c>
+      <c r="CM30" t="n">
+        <v>0.000113201795</v>
+      </c>
+      <c r="CN30" t="n">
+        <v>0.000113201795</v>
+      </c>
+      <c r="CO30" t="n">
+        <v>0.00022153183</v>
+      </c>
+      <c r="CP30" t="inlineStr"/>
+      <c r="CQ30" t="inlineStr"/>
+      <c r="CR30" t="inlineStr"/>
+      <c r="CS30" t="inlineStr"/>
+      <c r="CT30" t="inlineStr"/>
+      <c r="CU30" t="inlineStr"/>
+      <c r="CV30" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW30" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1348,18 +9914,297 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>B.046.04.130</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Electricity Ningxia production</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
+        <v>0.031374395827</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.00033516075</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.00051911345</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7.665662699999999e-05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.030443465</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.00028315348</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.00023595997</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.00023181519</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.00010334556</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>7.665662699999999e-05</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>0.2029564333333333</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="Z31" t="n">
+        <v>5.6029334</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2.3863664</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>2.958789</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.24840861</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.0093693739</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.0034488872</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.0032544878</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.00015566932</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>3.8730087e-05</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.9511318e-07</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>5.7570016e-10</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.005424382</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.8834357e-07</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>5.6827801e-10</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.5526167e-14</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>6.2120409e-12</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>6.7633936e-09</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.4166484e-12</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>5.9899753e-12</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>2.938504e-06</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0.0054214435</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>8.753610500000001e-06</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>4.12967e-08</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>5.6589639e-06</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>1.1036424e-10</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.2652007e-07</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS31" t="n">
+        <v>3.3666796e-10</v>
+      </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>4.6993431e-08</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>2.8793893e-06</v>
+      </c>
+      <c r="BY31" t="n">
+        <v>9.7210118e-14</v>
+      </c>
+      <c r="BZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB31" t="n">
+        <v>0.20295643</v>
+      </c>
+      <c r="CC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD31" t="n">
+        <v>2.8254601e-05</v>
+      </c>
+      <c r="CE31" t="n">
+        <v>1.6034994e-05</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH31" t="n">
+        <v>4.3038657e-06</v>
+      </c>
+      <c r="CI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ31" t="n">
+        <v>0.063002222</v>
+      </c>
+      <c r="CK31" t="n">
+        <v>0.030443465</v>
+      </c>
+      <c r="CL31" t="n">
+        <v>0.0008542742</v>
+      </c>
+      <c r="CM31" t="n">
+        <v>0.00051911345</v>
+      </c>
+      <c r="CN31" t="n">
+        <v>0.00051911345</v>
+      </c>
+      <c r="CO31" t="n">
+        <v>7.665662699999999e-05</v>
+      </c>
+      <c r="CP31" t="inlineStr"/>
+      <c r="CQ31" t="inlineStr"/>
+      <c r="CR31" t="inlineStr"/>
+      <c r="CS31" t="inlineStr"/>
+      <c r="CT31" t="inlineStr"/>
+      <c r="CU31" t="inlineStr"/>
+      <c r="CV31" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW31" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1378,18 +10223,297 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>B.046.04.131</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>Energy, electricity China</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Electricity Xinjiang production</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
+        <v>0.030454046029</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0003245212</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.00050048445</v>
+      </c>
+      <c r="J32" t="n">
+        <v>7.7715379e-05</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.029551325</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.00027227658</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.00022820787</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.00022405129</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.00010046991</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>7.7715379e-05</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>0.1970088333333333</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="Z32" t="n">
+        <v>5.5059694</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>2.3164215</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>2.9084726</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.20478274</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.076292587</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.0033470608</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.0031583739</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.00015109111</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>3.7595804e-05</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.8935095e-07</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>5.5876889e-10</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.0052655188</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.828242e-07</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>5.5162474e-10</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.5071176e-14</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>6.0039888e-12</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>6.520752e-09</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.3692023e-12</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>5.7598798e-12</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>2.9790895e-06</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>0.0052625397</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>8.4963111e-06</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>3.9710352e-08</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>5.493129e-06</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>1.0666794e-10</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.2263941e-07</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS32" t="n">
+        <v>3.2539236e-10</v>
+      </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>4.5406345e-08</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>2.7949938e-06</v>
+      </c>
+      <c r="BY32" t="n">
+        <v>9.8552746e-14</v>
+      </c>
+      <c r="BZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB32" t="n">
+        <v>0.19700883</v>
+      </c>
+      <c r="CC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD32" t="n">
+        <v>2.7169244e-05</v>
+      </c>
+      <c r="CE32" t="n">
+        <v>1.5508189e-05</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH32" t="n">
+        <v>4.1658265e-06</v>
+      </c>
+      <c r="CI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ32" t="n">
+        <v>0.061155612</v>
+      </c>
+      <c r="CK32" t="n">
+        <v>0.029551325</v>
+      </c>
+      <c r="CL32" t="n">
+        <v>0.00082500565</v>
+      </c>
+      <c r="CM32" t="n">
+        <v>0.00050048445</v>
+      </c>
+      <c r="CN32" t="n">
+        <v>0.00050048445</v>
+      </c>
+      <c r="CO32" t="n">
+        <v>7.7715379e-05</v>
+      </c>
+      <c r="CP32" t="inlineStr"/>
+      <c r="CQ32" t="inlineStr"/>
+      <c r="CR32" t="inlineStr"/>
+      <c r="CS32" t="inlineStr"/>
+      <c r="CT32" t="inlineStr"/>
+      <c r="CU32" t="inlineStr"/>
+      <c r="CV32" t="inlineStr">
+        <is>
+          <t>electricity China.xlsx</t>
+        </is>
+      </c>
+      <c r="CW32" t="inlineStr">
         <is>
           <t>Global</t>
         </is>

--- a/Data_processed/electricity/electricity China.xlsx
+++ b/Data_processed/electricity/electricity China.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/electricity/electricity China.xlsx
+++ b/Data_processed/electricity/electricity China.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -122,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,14 +470,1014 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>carbon (kg CO2 eq)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ced (MJ)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>climate change (kg CO2 eq)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Electricity Beijing production</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26148888</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.5711769</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.2910037e-06</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Electricity Tianjin production</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2458252266666667</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.3117561</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.8542596e-06</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Electricity Hebei production</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2027121</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.5996635</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.6521513e-06</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Electricity Shanxi production</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2254119133333334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.9748933</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.2850823e-06</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Electricity Inner Mongolia production</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2106227666666667</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.730846</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.8727216e-06</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Electricity Liaoning production</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.15633982</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.9187545</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.3591691e-06</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Electricity Jilin production</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1655053733333333</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.9863687</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.6147289e-06</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Electricity Heilongjiang production</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1959247933333333</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.488086</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.4629031e-06</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Electricity Shanghai production</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.25970618</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.5416111</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.2412974e-06</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Electricity Jiangsu production</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.21788696</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.2249096</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6.0752667e-06</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Electricity Zhejiang production</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1981833333333334</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.2476254</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.5258772e-06</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Electricity Anhui production</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.24230588</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.2539617</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.7561308e-06</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Electricity Fujian production</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1605092933333334</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.0187442</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.475425e-06</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Electricity Jiangxi production</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2191823466666667</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.8721818</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6.1113854e-06</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Electricity Shandong production</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2248807133333333</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.1115408</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6.2702709e-06</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Electricity Henan production</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.22132368</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.9079018</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.1710915e-06</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Electricity Hubei production</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1235705066666667</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.2956038</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.4454736e-06</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Electricity Hunan production</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1528896466666667</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.7792129</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.2629691e-06</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Electricity Guangdong production</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1943637333333333</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6.2526771</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.4193766e-06</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Electricity Guangxi production</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1420520466666667</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.1634653</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.960788e-06</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Electricity Hainan production</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.18212972</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.2233437</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.0782598e-06</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Electricity Chongqing production</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2068272133333333</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.669548</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.7668915e-06</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Electricity Sichuan production</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.04776863133333333</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.0464557</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.3319162e-06</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Electricity Guizhou production</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1789799533333333</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.2091253</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.990436e-06</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Electricity Yunnan production</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.038210444</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.8880417</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.0654086e-06</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Electricity Tibet production</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.010111274</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.4246647</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.8192915e-07</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Electricity Shaanxi production</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.23257274</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.0932509</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6.4847451e-06</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Electricity Gansu production</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1337171266666667</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.4608343</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.7283882e-06</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Electricity Qinghai production</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.03551259933333334</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.8387454</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9.901854899999999e-07</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Electricity Ningxia production</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2029564333333333</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.6029334</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.6589639e-06</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>electricity China</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MJ </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Electricity Xinjiang production</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1970088333333333</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5.5059694</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5.493129e-06</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>